--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_15.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_15.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:N289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1609158515930176</v>
+        <v>0.0007128715515136719</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009253978729248047</v>
+        <v>0.0005338191986083984</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009479761123657227</v>
+        <v>0.00877690315246582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 3), (1, 3), (3, 2), (3, 0), (2, 0), (2, 2), (3, 1), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[2, 3], [1, 3], [3, 2], [3, 0], [2, 0], [2, 2], [3, 1], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[(2, 3), (3, 3), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[2, 3], [3, 3], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[(2, 3), (1, 3), (3, 2), (3, 1), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (3, 3), (1, 2), (0, 3)]</t>
+          <t>[[2, 3], [1, 3], [3, 2], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [3, 3], [1, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 1), (2, 0), (1, 0), (0, 1), (0, 0), (1, 1), (2, 1), (3, 0), (2, 2), (3, 3), (1, 2), (0, 3), (0, 2), (1, 3)]</t>
+          <t>[[3, 2], [3, 1], [2, 0], [1, 0], [0, 1], [0, 0], [1, 1], [2, 1], [3, 0], [2, 2], [3, 3], [1, 2], [0, 3], [0, 2], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (3, 0), (2, 1), (2, 3), (2, 0), (3, 2), (0, 3), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 1], [2, 3], [2, 0], [3, 2], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -2506,110 +2506,120 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>38</v>
+        <v>0.997676961296731</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>231</v>
+        <v>38</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.2031140327453613</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.03292083740234375</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B289" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C289" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
+      <c r="D289" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="F289" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H289" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I288" t="inlineStr">
+      <c r="I289" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J288" t="inlineStr">
+      <c r="J289" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K288" t="inlineStr">
+      <c r="K289" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L288" t="inlineStr">
+      <c r="L289" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr">
+      <c r="M289" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N288" t="inlineStr">
+      <c r="N289" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_15.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_15.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007128715515136719</v>
+        <v>0.001054286956787109</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005338191986083984</v>
+        <v>0.0007560253143310547</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00877690315246582</v>
+        <v>0.02648711204528809</v>
       </c>
     </row>
     <row r="8">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.03292083740234375</v>
+        <v>0.05382084846496582</v>
       </c>
     </row>
     <row r="289">
